--- a/ML SD_update doc.xlsx
+++ b/ML SD_update doc.xlsx
@@ -1479,11 +1479,11 @@
   <dimension ref="A1:S1019"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D23" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E24" sqref="E24"/>
+      <selection pane="bottomRight" activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6296296296296" defaultRowHeight="15.75" customHeight="1"/>

--- a/ML SD_update doc.xlsx
+++ b/ML SD_update doc.xlsx
@@ -1479,11 +1479,11 @@
   <dimension ref="A1:S1019"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D24" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F27" sqref="F27"/>
+      <selection pane="bottomRight" activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6296296296296" defaultRowHeight="15.75" customHeight="1"/>
@@ -2226,7 +2226,7 @@
       <c r="R27" s="7"/>
       <c r="S27" s="7"/>
     </row>
-    <row r="28" ht="60" customHeight="1" spans="1:19">
+    <row r="28" ht="108" customHeight="1" spans="1:19">
       <c r="A28" s="14" t="s">
         <v>54</v>
       </c>
@@ -2255,7 +2255,7 @@
       <c r="R28" s="7"/>
       <c r="S28" s="7"/>
     </row>
-    <row r="29" ht="60" customHeight="1" spans="1:19">
+    <row r="29" ht="121" customHeight="1" spans="1:19">
       <c r="A29" s="14" t="s">
         <v>56</v>
       </c>
@@ -2284,7 +2284,7 @@
       <c r="R29" s="7"/>
       <c r="S29" s="7"/>
     </row>
-    <row r="30" ht="60" customHeight="1" spans="1:19">
+    <row r="30" ht="97" customHeight="1" spans="1:19">
       <c r="A30" s="18" t="s">
         <v>58</v>
       </c>
